--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bidones de gasolina</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>780</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-13 06:57:07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,28 @@
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bastones</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-20 07:31:53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,28 @@
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uniformes</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>345</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-12 18:10:04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -504,14 +504,18 @@
         <v>2.34</v>
       </c>
       <c r="D3" t="n">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>2025-05-13 06:57:07</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-06-12 19:06:12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">

--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -530,14 +530,18 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>2025-05-20 07:31:53</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-06-13 07:02:20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
